--- a/artfynd/A 59837-2020.xlsx
+++ b/artfynd/A 59837-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,32 +680,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>204029</v>
+        <v>173360</v>
       </c>
       <c r="B2" t="n">
-        <v>99331</v>
+        <v>104643</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>693</v>
+        <v>245</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Färgginst</t>
+          <t>Skogsklocka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Genista tinctoria</t>
+          <t>Campanula cervicaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -713,20 +713,34 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Valdemarsvik, Slalombacken, Ög</t>
+          <t>Valdemarsviks ishockeyhall, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>593632.5410994204</v>
+        <v>593615.080207533</v>
       </c>
       <c r="R2" t="n">
-        <v>6453779.212611238</v>
+        <v>6453736.111156315</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +764,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1970-05-01</t>
+          <t>2011-07-12</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,12 +774,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1978-07-30</t>
+          <t>2011-07-12</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Ett nytt stort bestånd (ca 190 ex) utanför nordvästhörnet av hockeyhallen.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -777,18 +796,275 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>skogsslänt</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
+          <t>Stefan Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Stefan Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>167634</v>
+      </c>
+      <c r="B3" t="n">
+        <v>104643</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Godkänd baserat på observatörens uppgifter</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>245</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Skogsklocka</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Campanula cervicaria</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Valdemarsviks ishall SV, 50 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>593635.2000545097</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6453756.08671589</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Valdemarsvik</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Valdemarsvik</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>E-Val-0147</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2010-07-31</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2010-07-31</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>76P, , identisk med Obs Id 4545496</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>E-län Floraväktarna</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Stefan Kasselstrand</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>204029</v>
+      </c>
+      <c r="B4" t="n">
+        <v>99331</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>693</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Färgginst</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Genista tinctoria</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Valdemarsvik, Slalombacken, Ög</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>593632.5410994204</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6453779.212611238</v>
+      </c>
+      <c r="S4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Valdemarsvik</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Valdemarsvik</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>1970-05-01</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>1978-07-30</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
           <t>Stefan Karlsson</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>Stefan Kasselstrand</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>Äldre fynd i Östergötlands flora x</t>
         </is>
